--- a/uploads/template/new_usage_import_template.xlsx
+++ b/uploads/template/new_usage_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Detail/WMA/Fileimport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Detail/WMA/import(template)/importล่าสุด/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD65D03-4B71-9B4D-B302-7BD92A5185D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E44FE3-9833-4442-B98C-2D7C7D82D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53380" yWindow="2740" windowWidth="27640" windowHeight="15960" xr2:uid="{BA2554CA-51B6-9244-9BAB-05E1D859B4DF}"/>
+    <workbookView xWindow="-32700" yWindow="1040" windowWidth="28800" windowHeight="16480" xr2:uid="{BA2554CA-51B6-9244-9BAB-05E1D859B4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>นางรัศมี อภิรติธรรม(TNS)</t>
   </si>
@@ -87,9 +87,6 @@
     <t>น้ำทิ้ง</t>
   </si>
   <si>
-    <t>เหมา</t>
-  </si>
-  <si>
     <t>กลุ่ม</t>
   </si>
   <si>
@@ -106,6 +103,15 @@
   </si>
   <si>
     <t>เลขที่ผู้ใช้น้ำ</t>
+  </si>
+  <si>
+    <t>หน่วยการคำนวณ</t>
+  </si>
+  <si>
+    <t>บาท/ลบ.ม.</t>
+  </si>
+  <si>
+    <t>บาท/เดือน</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9DEF98-7381-C24A-A4FC-C64C6E1AABEA}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,33 +505,37 @@
     <col min="4" max="4" width="7.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>12170383890</v>
       </c>
@@ -544,8 +554,11 @@
       <c r="F2" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>12170353415</v>
       </c>
@@ -564,8 +577,11 @@
       <c r="F3" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>12170304741</v>
       </c>
@@ -584,8 +600,11 @@
       <c r="F4" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>12170304808</v>
       </c>
@@ -604,8 +623,11 @@
       <c r="F5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>12170304817</v>
       </c>
@@ -624,8 +646,11 @@
       <c r="F6" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>12170368266</v>
       </c>
@@ -644,8 +669,11 @@
       <c r="F7" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>12170304723</v>
       </c>
@@ -656,10 +684,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
         <v>75438</v>
@@ -667,8 +695,11 @@
       <c r="G8" s="6">
         <v>3000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="7"/>
     </row>
   </sheetData>
